--- a/final assignment/data/optimize_results/results_scenario_0_seed_2.xlsx
+++ b/final assignment/data/optimize_results/results_scenario_0_seed_2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN16"/>
+  <dimension ref="A1:AN10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -644,112 +644,112 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
         <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
       </c>
       <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="n">
         <v>2</v>
       </c>
-      <c r="R2" t="n">
-        <v>3</v>
-      </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Y2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF2" t="n">
         <v>10</v>
       </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>9</v>
-      </c>
       <c r="AG2" t="n">
         <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>115851949.2290446</v>
+        <v>37255203.23710208</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1628650.004081894</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>164812881.8250401</v>
+        <v>346001607.829931</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0002901396472049811</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>1706200000</v>
+        <v>1233700000</v>
       </c>
       <c r="AN2" t="n">
-        <v>156.5402684357367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -760,19 +760,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -781,79 +781,79 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>7</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>9</v>
+      </c>
+      <c r="V3" t="n">
         <v>2</v>
       </c>
-      <c r="R3" t="n">
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>2</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2</v>
-      </c>
-      <c r="T3" t="n">
-        <v>9</v>
-      </c>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>3</v>
-      </c>
-      <c r="X3" t="n">
-        <v>10</v>
       </c>
       <c r="Y3" t="n">
         <v>6</v>
       </c>
       <c r="Z3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AA3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AB3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
         <v>6</v>
       </c>
       <c r="AF3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>174629653.720489</v>
+        <v>68139002.95605196</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>116004983.7961544</v>
+        <v>147929705.4732663</v>
       </c>
       <c r="AL3" t="n">
         <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>473000000</v>
+        <v>1573600000</v>
       </c>
       <c r="AN3" t="n">
         <v>0</v>
@@ -879,19 +879,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -900,100 +900,100 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>7</v>
       </c>
       <c r="X4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB4" t="n">
         <v>6</v>
       </c>
-      <c r="Y4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z4" t="n">
+      <c r="AC4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE4" t="n">
         <v>4</v>
       </c>
-      <c r="AA4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
+      <c r="AF4" t="n">
         <v>7</v>
       </c>
-      <c r="AE4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>8</v>
-      </c>
       <c r="AG4" t="n">
         <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>128446235.0622317</v>
+        <v>141847108.7365944</v>
       </c>
       <c r="AI4" t="n">
         <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>5644622.555042222</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>156208672.6436937</v>
+        <v>128933649.8662307</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.002396056679896607</v>
+        <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>929900000</v>
+        <v>716300000</v>
       </c>
       <c r="AN4" t="n">
-        <v>186.244495627948</v>
+        <v>600.6367541125016</v>
       </c>
     </row>
     <row r="5">
@@ -1004,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -1016,34 +1016,34 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>4</v>
@@ -1052,13 +1052,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1067,55 +1067,55 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC5" t="n">
         <v>4</v>
       </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9</v>
-      </c>
       <c r="AD5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>155741221.7057983</v>
+        <v>71223146.50296113</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>20523480.18967635</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>53358573.6002109</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.002799513278987693</v>
+        <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>1894700000</v>
+        <v>1080100000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1597.445769501962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1123,10 +1123,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1141,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -1168,70 +1168,70 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>9</v>
+      </c>
+      <c r="U6" t="n">
         <v>2</v>
       </c>
-      <c r="T6" t="n">
-        <v>4</v>
-      </c>
-      <c r="U6" t="n">
-        <v>6</v>
-      </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W6" t="n">
         <v>5</v>
       </c>
       <c r="X6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Y6" t="n">
         <v>4</v>
       </c>
       <c r="Z6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA6" t="n">
         <v>6</v>
       </c>
-      <c r="AA6" t="n">
-        <v>3</v>
-      </c>
       <c r="AB6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AD6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE6" t="n">
         <v>8</v>
       </c>
-      <c r="AE6" t="n">
-        <v>5</v>
-      </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG6" t="n">
         <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>180016033.3208159</v>
+        <v>128446235.0622317</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>432727.2860183099</v>
       </c>
       <c r="AK6" t="n">
-        <v>196159167.786688</v>
+        <v>164265016.3968021</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>0.0005102614121909706</v>
       </c>
       <c r="AM6" t="n">
         <v>230600000</v>
@@ -1248,19 +1248,19 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1293,55 +1293,55 @@
         <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>3</v>
       </c>
       <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>8</v>
+      </c>
+      <c r="W7" t="n">
+        <v>3</v>
+      </c>
+      <c r="X7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
         <v>6</v>
       </c>
-      <c r="V7" t="n">
-        <v>5</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1</v>
-      </c>
-      <c r="X7" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>7</v>
-      </c>
       <c r="AB7" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AC7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>89068254.21950817</v>
+        <v>82486364.32617709</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>194071605.6208117</v>
+        <v>206975852.0599773</v>
       </c>
       <c r="AL7" t="n">
         <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>660100000</v>
+        <v>768700000</v>
       </c>
       <c r="AN7" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1400,70 +1400,70 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>8</v>
+      </c>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
         <v>4</v>
       </c>
-      <c r="R8" t="n">
-        <v>1</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
+      <c r="W8" t="n">
+        <v>1</v>
+      </c>
+      <c r="X8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD8" t="n">
         <v>7</v>
       </c>
-      <c r="V8" t="n">
-        <v>7</v>
-      </c>
-      <c r="W8" t="n">
-        <v>9</v>
-      </c>
-      <c r="X8" t="n">
+      <c r="AE8" t="n">
         <v>5</v>
       </c>
-      <c r="Y8" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>3</v>
-      </c>
       <c r="AF8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG8" t="n">
         <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>66507014.9338145</v>
+        <v>144229490.881755</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
@@ -1472,13 +1472,13 @@
         <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>310115649.0822169</v>
+        <v>155246504.8902788</v>
       </c>
       <c r="AL8" t="n">
         <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>856400000</v>
+        <v>497000000</v>
       </c>
       <c r="AN8" t="n">
         <v>0</v>
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1510,100 +1510,100 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S9" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>6</v>
       </c>
-      <c r="U9" t="n">
-        <v>2</v>
-      </c>
       <c r="V9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="W9" t="n">
         <v>5</v>
       </c>
       <c r="X9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y9" t="n">
         <v>2</v>
       </c>
       <c r="Z9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AB9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AD9" t="n">
         <v>2</v>
       </c>
       <c r="AE9" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AF9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>155741221.7057983</v>
+        <v>68139002.95605196</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1620372.155997926</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>225041373.8368748</v>
+        <v>247687966.2936603</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.0006895503259465418</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>577200000</v>
+        <v>764300000</v>
       </c>
       <c r="AN9" t="n">
-        <v>51.79243996526184</v>
+        <v>77.65971474677906</v>
       </c>
     </row>
     <row r="10">
@@ -1620,10 +1620,10 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1638,13 +1638,13 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1656,807 +1656,75 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T10" t="n">
+        <v>4</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>6</v>
       </c>
-      <c r="U10" t="n">
-        <v>1</v>
-      </c>
-      <c r="V10" t="n">
-        <v>7</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1</v>
-      </c>
       <c r="X10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC10" t="n">
         <v>10</v>
       </c>
-      <c r="AB10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7</v>
-      </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AF10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>155741221.7057983</v>
+        <v>174873675.8682204</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1587260.763662053</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>164105490.4181474</v>
+        <v>106547043.0873263</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.001840030601569137</v>
+        <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>612300000</v>
+        <v>540300000</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>4</v>
-      </c>
-      <c r="R11" t="n">
-        <v>4</v>
-      </c>
-      <c r="S11" t="n">
-        <v>10</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1</v>
-      </c>
-      <c r="U11" t="n">
-        <v>8</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>208969075.0557148</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>81277411.11097889</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>891600000</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>3</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>4</v>
-      </c>
-      <c r="U12" t="n">
-        <v>6</v>
-      </c>
-      <c r="V12" t="n">
-        <v>4</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1</v>
-      </c>
-      <c r="X12" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>95213987.28559849</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>184839663.2220626</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>931300000</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2</v>
-      </c>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
-      <c r="T13" t="n">
-        <v>6</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2</v>
-      </c>
-      <c r="W13" t="n">
-        <v>3</v>
-      </c>
-      <c r="X13" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>171796527.0518112</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>12781043.94568583</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>93986630.59767582</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0.005309060512826265</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>1109400000</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>411.5764138903418</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>8</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>4</v>
-      </c>
-      <c r="V14" t="n">
-        <v>6</v>
-      </c>
-      <c r="W14" t="n">
-        <v>10</v>
-      </c>
-      <c r="X14" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>76299088.11882158</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>268174055.1089486</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>1255200000</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>6</v>
-      </c>
-      <c r="T15" t="n">
-        <v>5</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2</v>
-      </c>
-      <c r="W15" t="n">
-        <v>7</v>
-      </c>
-      <c r="X15" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>126745040.658732</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>3974699.938649398</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>163617629.8270864</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>0.001665892982545459</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>831600000</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>144.449860569923</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>3</v>
-      </c>
-      <c r="S16" t="n">
-        <v>9</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>7</v>
-      </c>
-      <c r="W16" t="n">
-        <v>2</v>
-      </c>
-      <c r="X16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>136598613.0637709</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>6932153.569254421</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>127487673.0782653</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>0.007983596910674396</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>1218600000</v>
-      </c>
-      <c r="AN16" t="n">
         <v>0</v>
       </c>
     </row>
